--- a/jst_rebuild/file/出账订单&房单号.xlsx
+++ b/jst_rebuild/file/出账订单&房单号.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:J8"/>
+  <dimension ref="B1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -381,41 +381,11 @@
           <t>房单号</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>记账科目出账结果</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>直销单出账结果</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>微官网客房出账结果</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>微官网商品出账结果</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>商旅出账结果</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>出账结果</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>187865881011</t>
+          <t>193910241011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -425,44 +395,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>187865881</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>失败</t>
+          <t>193910241</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>187865881012</t>
+          <t>193910241012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -472,167 +412,55 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>187865882</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>失败</t>
+          <t>193910242</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>187865881013</t>
+          <t>193910241013</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>JJ1094</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>失败</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>187865881014</t>
+          <t>193910241014</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>JJ1094</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>失败</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>187865881015</t>
+          <t>193910241015</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>JJ69876</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>失败</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>866331016</t>
+          <t>910311016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>5353</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>失败</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>成功</t>
         </is>
       </c>
     </row>

--- a/jst_rebuild/file/出账订单&房单号.xlsx
+++ b/jst_rebuild/file/出账订单&房单号.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:D7"/>
+  <dimension ref="B1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -381,11 +381,16 @@
           <t>房单号</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>记账科目出账结果</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="inlineStr">
         <is>
-          <t>193910241011</t>
+          <t>211467001011</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -395,72 +400,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>193910241</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>193910241012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>JJ69876</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>193910242</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>193910241013</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>JJ1094</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>193910241014</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>JJ1094</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>193910241015</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>JJ69876</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>910311016</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5353</t>
+          <t>211467001</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>成功</t>
         </is>
       </c>
     </row>
